--- a/modelos/OBAFAR4421378/OBAFAR4421378_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4421378/OBAFAR4421378_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44782</v>
       </c>
       <c r="B2" t="n">
-        <v>265.7609162008651</v>
+        <v>264.06013395246</v>
       </c>
       <c r="C2" t="n">
-        <v>118.6637753040066</v>
+        <v>113.8045936148023</v>
       </c>
       <c r="D2" t="n">
-        <v>408.6356934060859</v>
+        <v>407.365888797598</v>
       </c>
       <c r="E2" t="n">
         <v>200</v>
@@ -496,13 +496,13 @@
         <v>44789</v>
       </c>
       <c r="B3" t="n">
-        <v>206.3500685761714</v>
+        <v>201.372617823829</v>
       </c>
       <c r="C3" t="n">
-        <v>54.48984355613392</v>
+        <v>46.25869067088858</v>
       </c>
       <c r="D3" t="n">
-        <v>354.2539936823826</v>
+        <v>340.7406308786646</v>
       </c>
       <c r="E3" t="n">
         <v>180</v>
@@ -516,13 +516,13 @@
         <v>44796</v>
       </c>
       <c r="B4" t="n">
-        <v>142.8582015962586</v>
+        <v>141.046538544345</v>
       </c>
       <c r="C4" t="n">
-        <v>-17.96217850603628</v>
+        <v>-7.060339663601341</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3310017269628</v>
+        <v>283.2553501739893</v>
       </c>
       <c r="E4" t="n">
         <v>190</v>
@@ -536,13 +536,13 @@
         <v>44803</v>
       </c>
       <c r="B5" t="n">
-        <v>163.1977296206135</v>
+        <v>159.4160462552241</v>
       </c>
       <c r="C5" t="n">
-        <v>9.359466676202583</v>
+        <v>20.20636362005957</v>
       </c>
       <c r="D5" t="n">
-        <v>324.3990088206651</v>
+        <v>313.7171851500475</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
@@ -556,13 +556,13 @@
         <v>44806</v>
       </c>
       <c r="B6" t="n">
-        <v>23.28106015213967</v>
+        <v>15.66364345933701</v>
       </c>
       <c r="C6" t="n">
-        <v>-103.3881440406574</v>
+        <v>-124.8471027987311</v>
       </c>
       <c r="D6" t="n">
-        <v>171.8139995103079</v>
+        <v>153.4433159305959</v>
       </c>
       <c r="E6" t="n">
         <v>50</v>
@@ -576,13 +576,13 @@
         <v>44810</v>
       </c>
       <c r="B7" t="n">
-        <v>212.659700252613</v>
+        <v>211.1836733615892</v>
       </c>
       <c r="C7" t="n">
-        <v>69.95185271821384</v>
+        <v>57.36075589495371</v>
       </c>
       <c r="D7" t="n">
-        <v>365.6486680314147</v>
+        <v>347.0408348426678</v>
       </c>
       <c r="E7" t="n">
         <v>270</v>
@@ -596,13 +596,13 @@
         <v>44817</v>
       </c>
       <c r="B8" t="n">
-        <v>271.6351874373395</v>
+        <v>269.9882329545812</v>
       </c>
       <c r="C8" t="n">
-        <v>126.4642163542345</v>
+        <v>122.0862664275662</v>
       </c>
       <c r="D8" t="n">
-        <v>408.0693661650348</v>
+        <v>412.4082357626058</v>
       </c>
       <c r="E8" t="n">
         <v>390</v>
@@ -616,13 +616,13 @@
         <v>44824</v>
       </c>
       <c r="B9" t="n">
-        <v>301.87004938996</v>
+        <v>290.6809466189555</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4133206901322</v>
+        <v>144.1310297320694</v>
       </c>
       <c r="D9" t="n">
-        <v>445.9825142406303</v>
+        <v>437.0463683519965</v>
       </c>
       <c r="E9" t="n">
         <v>240</v>
@@ -636,13 +636,13 @@
         <v>44831</v>
       </c>
       <c r="B10" t="n">
-        <v>297.5983810481069</v>
+        <v>290.350145827031</v>
       </c>
       <c r="C10" t="n">
-        <v>153.5469521823437</v>
+        <v>147.2549579293852</v>
       </c>
       <c r="D10" t="n">
-        <v>443.0019187606107</v>
+        <v>437.0697520785978</v>
       </c>
       <c r="E10" t="n">
         <v>210</v>
@@ -656,13 +656,13 @@
         <v>44838</v>
       </c>
       <c r="B11" t="n">
-        <v>330.1749382205477</v>
+        <v>315.0916350173261</v>
       </c>
       <c r="C11" t="n">
-        <v>184.415372302829</v>
+        <v>165.3644769493564</v>
       </c>
       <c r="D11" t="n">
-        <v>471.1358533241295</v>
+        <v>459.6021929241301</v>
       </c>
       <c r="E11" t="n">
         <v>240</v>
@@ -676,13 +676,13 @@
         <v>44845</v>
       </c>
       <c r="B12" t="n">
-        <v>362.8371318985999</v>
+        <v>358.6863402644404</v>
       </c>
       <c r="C12" t="n">
-        <v>220.5031017564391</v>
+        <v>208.6287255898766</v>
       </c>
       <c r="D12" t="n">
-        <v>518.2865920018978</v>
+        <v>511.4040276612646</v>
       </c>
       <c r="E12" t="n">
         <v>320</v>
@@ -696,13 +696,13 @@
         <v>44852</v>
       </c>
       <c r="B13" t="n">
-        <v>336.0758917839798</v>
+        <v>336.1554428942793</v>
       </c>
       <c r="C13" t="n">
-        <v>187.5067626749899</v>
+        <v>185.0822572326978</v>
       </c>
       <c r="D13" t="n">
-        <v>475.4848452464593</v>
+        <v>485.0883471445067</v>
       </c>
       <c r="E13" t="n">
         <v>240</v>
@@ -716,13 +716,13 @@
         <v>44880</v>
       </c>
       <c r="B14" t="n">
-        <v>245.2941261538145</v>
+        <v>239.00343216732</v>
       </c>
       <c r="C14" t="n">
-        <v>97.52358251036109</v>
+        <v>95.11031253523757</v>
       </c>
       <c r="D14" t="n">
-        <v>398.8201694134502</v>
+        <v>373.775834346572</v>
       </c>
       <c r="E14" t="n">
         <v>260</v>
@@ -736,13 +736,13 @@
         <v>44887</v>
       </c>
       <c r="B15" t="n">
-        <v>288.5918510078142</v>
+        <v>296.7403019331654</v>
       </c>
       <c r="C15" t="n">
-        <v>151.9617157426798</v>
+        <v>149.2346940845816</v>
       </c>
       <c r="D15" t="n">
-        <v>439.1805021884</v>
+        <v>438.2484169950656</v>
       </c>
       <c r="E15" t="n">
         <v>350</v>
@@ -756,13 +756,13 @@
         <v>44894</v>
       </c>
       <c r="B16" t="n">
-        <v>271.7456717324151</v>
+        <v>266.5110714047597</v>
       </c>
       <c r="C16" t="n">
-        <v>131.1300053343445</v>
+        <v>127.2917166461761</v>
       </c>
       <c r="D16" t="n">
-        <v>411.2274174180167</v>
+        <v>410.3152075522352</v>
       </c>
       <c r="E16" t="n">
         <v>80</v>
@@ -776,13 +776,13 @@
         <v>44901</v>
       </c>
       <c r="B17" t="n">
-        <v>183.0830473428352</v>
+        <v>191.1883194681246</v>
       </c>
       <c r="C17" t="n">
-        <v>32.38261212121488</v>
+        <v>40.10412843295517</v>
       </c>
       <c r="D17" t="n">
-        <v>322.4682748668627</v>
+        <v>342.482163306933</v>
       </c>
       <c r="E17" t="n">
         <v>550</v>
@@ -796,13 +796,13 @@
         <v>44908</v>
       </c>
       <c r="B18" t="n">
-        <v>237.4393510604936</v>
+        <v>240.4769807367508</v>
       </c>
       <c r="C18" t="n">
-        <v>91.83580987641935</v>
+        <v>87.56182737032655</v>
       </c>
       <c r="D18" t="n">
-        <v>382.2220876949129</v>
+        <v>397.7980134238304</v>
       </c>
       <c r="E18" t="n">
         <v>540</v>
@@ -816,13 +816,13 @@
         <v>44915</v>
       </c>
       <c r="B19" t="n">
-        <v>327.5754462627472</v>
+        <v>324.1681538883417</v>
       </c>
       <c r="C19" t="n">
-        <v>180.2739078088964</v>
+        <v>171.5608460665674</v>
       </c>
       <c r="D19" t="n">
-        <v>481.0940476227386</v>
+        <v>484.488021961352</v>
       </c>
       <c r="E19" t="n">
         <v>340</v>
@@ -836,13 +836,13 @@
         <v>44922</v>
       </c>
       <c r="B20" t="n">
-        <v>328.1950522898522</v>
+        <v>334.1193874174669</v>
       </c>
       <c r="C20" t="n">
-        <v>182.0305324844527</v>
+        <v>177.1638029019388</v>
       </c>
       <c r="D20" t="n">
-        <v>484.9147036197259</v>
+        <v>484.0328906782993</v>
       </c>
       <c r="E20" t="n">
         <v>180</v>
@@ -856,13 +856,13 @@
         <v>44929</v>
       </c>
       <c r="B21" t="n">
-        <v>266.8958361094775</v>
+        <v>259.0811392652703</v>
       </c>
       <c r="C21" t="n">
-        <v>108.1302921869218</v>
+        <v>93.84487568109225</v>
       </c>
       <c r="D21" t="n">
-        <v>413.0574813776641</v>
+        <v>391.6920585488684</v>
       </c>
       <c r="E21" t="n">
         <v>510</v>
@@ -876,13 +876,13 @@
         <v>44950</v>
       </c>
       <c r="B22" t="n">
-        <v>346.0916496677359</v>
+        <v>337.6544470874458</v>
       </c>
       <c r="C22" t="n">
-        <v>192.5662925602753</v>
+        <v>186.7586190109805</v>
       </c>
       <c r="D22" t="n">
-        <v>506.2527079239587</v>
+        <v>484.2281540160752</v>
       </c>
       <c r="E22" t="n">
         <v>260</v>
@@ -896,13 +896,13 @@
         <v>44957</v>
       </c>
       <c r="B23" t="n">
-        <v>385.2401243858205</v>
+        <v>373.8232407028897</v>
       </c>
       <c r="C23" t="n">
-        <v>230.8006408167813</v>
+        <v>226.0571633559071</v>
       </c>
       <c r="D23" t="n">
-        <v>550.7857617886812</v>
+        <v>533.8472591516419</v>
       </c>
       <c r="E23" t="n">
         <v>60</v>
@@ -916,13 +916,13 @@
         <v>44960</v>
       </c>
       <c r="B24" t="n">
-        <v>187.0531371545315</v>
+        <v>169.1823600055772</v>
       </c>
       <c r="C24" t="n">
-        <v>28.18476190132259</v>
+        <v>21.21865859655577</v>
       </c>
       <c r="D24" t="n">
-        <v>335.2770422443186</v>
+        <v>310.2509448444775</v>
       </c>
       <c r="E24" t="n">
         <v>70</v>
@@ -936,13 +936,13 @@
         <v>44964</v>
       </c>
       <c r="B25" t="n">
-        <v>310.8664887855408</v>
+        <v>299.5830372220664</v>
       </c>
       <c r="C25" t="n">
-        <v>159.872922029249</v>
+        <v>139.4285225712061</v>
       </c>
       <c r="D25" t="n">
-        <v>460.4810002488942</v>
+        <v>445.7886230092447</v>
       </c>
       <c r="E25" t="n">
         <v>200</v>
@@ -956,13 +956,13 @@
         <v>44971</v>
       </c>
       <c r="B26" t="n">
-        <v>220.3164040255269</v>
+        <v>215.7925855387226</v>
       </c>
       <c r="C26" t="n">
-        <v>67.86423757915651</v>
+        <v>74.27416198014076</v>
       </c>
       <c r="D26" t="n">
-        <v>379.4788186409567</v>
+        <v>362.2490491802458</v>
       </c>
       <c r="E26" t="n">
         <v>270</v>
@@ -976,13 +976,13 @@
         <v>44980</v>
       </c>
       <c r="B27" t="n">
-        <v>242.9841755506544</v>
+        <v>245.2862402805463</v>
       </c>
       <c r="C27" t="n">
-        <v>83.20745208146103</v>
+        <v>97.69734965837701</v>
       </c>
       <c r="D27" t="n">
-        <v>401.5385062282456</v>
+        <v>400.9219432700834</v>
       </c>
       <c r="E27" t="n">
         <v>430</v>
@@ -996,13 +996,13 @@
         <v>44985</v>
       </c>
       <c r="B28" t="n">
-        <v>339.4847369435571</v>
+        <v>342.1588908187484</v>
       </c>
       <c r="C28" t="n">
-        <v>181.7181216114288</v>
+        <v>184.9277000465121</v>
       </c>
       <c r="D28" t="n">
-        <v>505.1056761898066</v>
+        <v>497.6284204490495</v>
       </c>
       <c r="E28" t="n">
         <v>110</v>
@@ -1016,13 +1016,13 @@
         <v>44988</v>
       </c>
       <c r="B29" t="n">
-        <v>200.213450901953</v>
+        <v>197.0038374168742</v>
       </c>
       <c r="C29" t="n">
-        <v>48.75994870126281</v>
+        <v>44.19823987655916</v>
       </c>
       <c r="D29" t="n">
-        <v>359.2616343850057</v>
+        <v>341.5682044609202</v>
       </c>
       <c r="E29" t="n">
         <v>80</v>
@@ -1036,13 +1036,13 @@
         <v>44992</v>
       </c>
       <c r="B30" t="n">
-        <v>395.6524642639779</v>
+        <v>396.8755389705398</v>
       </c>
       <c r="C30" t="n">
-        <v>237.2614274515139</v>
+        <v>247.5716357666158</v>
       </c>
       <c r="D30" t="n">
-        <v>550.1016072892712</v>
+        <v>548.3212838430907</v>
       </c>
       <c r="E30" t="n">
         <v>200</v>
@@ -1056,13 +1056,13 @@
         <v>44999</v>
       </c>
       <c r="B31" t="n">
-        <v>320.7689077336754</v>
+        <v>320.6917029269813</v>
       </c>
       <c r="C31" t="n">
-        <v>171.2382966071326</v>
+        <v>161.8144863793015</v>
       </c>
       <c r="D31" t="n">
-        <v>478.2485060224432</v>
+        <v>482.0723573076061</v>
       </c>
       <c r="E31" t="n">
         <v>220</v>
@@ -1076,13 +1076,13 @@
         <v>45006</v>
       </c>
       <c r="B32" t="n">
-        <v>187.5778215912752</v>
+        <v>183.9446139391459</v>
       </c>
       <c r="C32" t="n">
-        <v>36.59409425155108</v>
+        <v>24.74749967158919</v>
       </c>
       <c r="D32" t="n">
-        <v>335.2175425137104</v>
+        <v>354.5048196729085</v>
       </c>
       <c r="E32" t="n">
         <v>230</v>
@@ -1096,13 +1096,13 @@
         <v>45013</v>
       </c>
       <c r="B33" t="n">
-        <v>175.8584151237024</v>
+        <v>177.2955081719243</v>
       </c>
       <c r="C33" t="n">
-        <v>24.52403721795161</v>
+        <v>25.68899242312814</v>
       </c>
       <c r="D33" t="n">
-        <v>329.9824503815649</v>
+        <v>313.4017461125322</v>
       </c>
       <c r="E33" t="n">
         <v>290</v>
@@ -1116,13 +1116,13 @@
         <v>45020</v>
       </c>
       <c r="B34" t="n">
-        <v>414.0152135679933</v>
+        <v>412.5246623457602</v>
       </c>
       <c r="C34" t="n">
-        <v>260.5810564557483</v>
+        <v>247.7889774177903</v>
       </c>
       <c r="D34" t="n">
-        <v>563.107961959216</v>
+        <v>561.453121992992</v>
       </c>
       <c r="E34" t="n">
         <v>200</v>
@@ -1136,13 +1136,13 @@
         <v>45040</v>
       </c>
       <c r="B35" t="n">
-        <v>775.5657900934382</v>
+        <v>770.542522599922</v>
       </c>
       <c r="C35" t="n">
-        <v>622.3611502810205</v>
+        <v>612.4931082666296</v>
       </c>
       <c r="D35" t="n">
-        <v>938.7930750837982</v>
+        <v>926.9228216131522</v>
       </c>
       <c r="E35" t="n">
         <v>780</v>
@@ -1156,13 +1156,13 @@
         <v>45048</v>
       </c>
       <c r="B36" t="n">
-        <v>598.6551237178707</v>
+        <v>599.6005515562848</v>
       </c>
       <c r="C36" t="n">
-        <v>445.2351095091483</v>
+        <v>440.9119180018518</v>
       </c>
       <c r="D36" t="n">
-        <v>746.5985919328951</v>
+        <v>751.3790434898551</v>
       </c>
       <c r="E36" t="n">
         <v>490</v>
@@ -1176,13 +1176,13 @@
         <v>45055</v>
       </c>
       <c r="B37" t="n">
-        <v>202.2568248208109</v>
+        <v>199.000863549758</v>
       </c>
       <c r="C37" t="n">
-        <v>49.57085270192746</v>
+        <v>36.69609659128749</v>
       </c>
       <c r="D37" t="n">
-        <v>358.3227068758301</v>
+        <v>355.2085112174135</v>
       </c>
       <c r="E37" t="n">
         <v>210</v>
@@ -1196,13 +1196,13 @@
         <v>45062</v>
       </c>
       <c r="B38" t="n">
-        <v>11.6937541425597</v>
+        <v>12.58659663174879</v>
       </c>
       <c r="C38" t="n">
-        <v>-145.7812021571353</v>
+        <v>-140.3427457609652</v>
       </c>
       <c r="D38" t="n">
-        <v>167.0922518515052</v>
+        <v>174.0719501021632</v>
       </c>
       <c r="E38" t="n">
         <v>30</v>
@@ -1277,22 +1277,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>9622.204147355804</v>
+        <v>8235.341295679258</v>
       </c>
       <c r="C2" t="n">
-        <v>98.0928343323599</v>
+        <v>90.74878123522794</v>
       </c>
       <c r="D2" t="n">
-        <v>87.99517596811495</v>
+        <v>83.50751798770477</v>
       </c>
       <c r="E2" t="n">
-        <v>1.236411535622594</v>
+        <v>1.188721985248906</v>
       </c>
       <c r="F2" t="n">
-        <v>1.502668136274413</v>
+        <v>1.416890857222531</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8326542109063473</v>
+        <v>0.9066506530086619</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1303,22 +1303,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>6421.356837402353</v>
+        <v>5520.0421567105</v>
       </c>
       <c r="C3" t="n">
-        <v>80.13336906309601</v>
+        <v>74.29698618860996</v>
       </c>
       <c r="D3" t="n">
-        <v>60.1415206142639</v>
+        <v>58.82417112516251</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8261693185802604</v>
+        <v>0.796522980507851</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5343787969572066</v>
+        <v>0.6867271308132598</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5570031704419925</v>
+        <v>0.6085000776201078</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -1329,25 +1329,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>22164.18372933702</v>
+        <v>21557.38673979095</v>
       </c>
       <c r="C4" t="n">
-        <v>148.8764042060965</v>
+        <v>146.824339738992</v>
       </c>
       <c r="D4" t="n">
-        <v>115.6513929031254</v>
+        <v>113.6830905923657</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6618241593987122</v>
+        <v>0.6468474643499095</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3846602906197577</v>
+        <v>0.3514602058978904</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4509694703054367</v>
+        <v>0.4437682793651258</v>
       </c>
       <c r="H4" t="n">
-        <v>0.71875</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAFAR4421378/OBAFAR4421378_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4421378/OBAFAR4421378_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,479 +473,479 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44782</v>
+        <v>44771</v>
       </c>
       <c r="B2" t="n">
-        <v>264.06013395246</v>
+        <v>74.45310099768767</v>
       </c>
       <c r="C2" t="n">
-        <v>113.8045936148023</v>
+        <v>-71.6608298787975</v>
       </c>
       <c r="D2" t="n">
-        <v>407.365888797598</v>
+        <v>229.8938074349116</v>
       </c>
       <c r="E2" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44775</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44789</v>
+        <v>44775</v>
       </c>
       <c r="B3" t="n">
-        <v>201.372617823829</v>
+        <v>280.5731623194337</v>
       </c>
       <c r="C3" t="n">
-        <v>46.25869067088858</v>
+        <v>121.2310367738506</v>
       </c>
       <c r="D3" t="n">
-        <v>340.7406308786646</v>
+        <v>432.0225510741732</v>
       </c>
       <c r="E3" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44782</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44796</v>
+        <v>44782</v>
       </c>
       <c r="B4" t="n">
-        <v>141.046538544345</v>
+        <v>293.9749926917577</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.060339663601341</v>
+        <v>145.9417385510804</v>
       </c>
       <c r="D4" t="n">
-        <v>283.2553501739893</v>
+        <v>450.0316436387451</v>
       </c>
       <c r="E4" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44789</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44803</v>
+        <v>44789</v>
       </c>
       <c r="B5" t="n">
-        <v>159.4160462552241</v>
+        <v>231.8877249804299</v>
       </c>
       <c r="C5" t="n">
-        <v>20.20636362005957</v>
+        <v>81.40022393311943</v>
       </c>
       <c r="D5" t="n">
-        <v>313.7171851500475</v>
+        <v>383.9012198349224</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44796</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44806</v>
+        <v>44796</v>
       </c>
       <c r="B6" t="n">
-        <v>15.66364345933701</v>
+        <v>167.3154298311501</v>
       </c>
       <c r="C6" t="n">
-        <v>-124.8471027987311</v>
+        <v>19.44843266434136</v>
       </c>
       <c r="D6" t="n">
-        <v>153.4433159305959</v>
+        <v>317.2315541286588</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44803</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44810</v>
+        <v>44803</v>
       </c>
       <c r="B7" t="n">
-        <v>211.1836733615892</v>
+        <v>179.6489667255362</v>
       </c>
       <c r="C7" t="n">
-        <v>57.36075589495371</v>
+        <v>27.67292254878936</v>
       </c>
       <c r="D7" t="n">
-        <v>347.0408348426678</v>
+        <v>322.5032502347561</v>
       </c>
       <c r="E7" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44803</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44817</v>
+        <v>44806</v>
       </c>
       <c r="B8" t="n">
-        <v>269.9882329545812</v>
+        <v>35.1474189396786</v>
       </c>
       <c r="C8" t="n">
-        <v>122.0862664275662</v>
+        <v>-117.8443832217143</v>
       </c>
       <c r="D8" t="n">
-        <v>412.4082357626058</v>
+        <v>179.760665146827</v>
       </c>
       <c r="E8" t="n">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44810</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44824</v>
+        <v>44810</v>
       </c>
       <c r="B9" t="n">
-        <v>290.6809466189555</v>
+        <v>235.3561508533183</v>
       </c>
       <c r="C9" t="n">
-        <v>144.1310297320694</v>
+        <v>85.58970045384208</v>
       </c>
       <c r="D9" t="n">
-        <v>437.0463683519965</v>
+        <v>384.3898062493624</v>
       </c>
       <c r="E9" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44817</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44831</v>
+        <v>44817</v>
       </c>
       <c r="B10" t="n">
-        <v>290.350145827031</v>
+        <v>296.6864015142343</v>
       </c>
       <c r="C10" t="n">
-        <v>147.2549579293852</v>
+        <v>147.5510941761594</v>
       </c>
       <c r="D10" t="n">
-        <v>437.0697520785978</v>
+        <v>453.8748007070531</v>
       </c>
       <c r="E10" t="n">
-        <v>210</v>
+        <v>390</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44824</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44838</v>
+        <v>44824</v>
       </c>
       <c r="B11" t="n">
-        <v>315.0916350173261</v>
+        <v>321.264378229845</v>
       </c>
       <c r="C11" t="n">
-        <v>165.3644769493564</v>
+        <v>171.5061186534095</v>
       </c>
       <c r="D11" t="n">
-        <v>459.6021929241301</v>
+        <v>461.9939487008533</v>
       </c>
       <c r="E11" t="n">
         <v>240</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44831</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44845</v>
+        <v>44831</v>
       </c>
       <c r="B12" t="n">
-        <v>358.6863402644404</v>
+        <v>322.9701314083119</v>
       </c>
       <c r="C12" t="n">
-        <v>208.6287255898766</v>
+        <v>170.3922013747185</v>
       </c>
       <c r="D12" t="n">
-        <v>511.4040276612646</v>
+        <v>466.5850819792587</v>
       </c>
       <c r="E12" t="n">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44838</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44852</v>
+        <v>44838</v>
       </c>
       <c r="B13" t="n">
-        <v>336.1554428942793</v>
+        <v>336.333729240632</v>
       </c>
       <c r="C13" t="n">
-        <v>185.0822572326978</v>
+        <v>196.4985919004579</v>
       </c>
       <c r="D13" t="n">
-        <v>485.0883471445067</v>
+        <v>483.2033702591796</v>
       </c>
       <c r="E13" t="n">
         <v>240</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44845</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44880</v>
+        <v>44845</v>
       </c>
       <c r="B14" t="n">
-        <v>239.00343216732</v>
+        <v>373.786644206107</v>
       </c>
       <c r="C14" t="n">
-        <v>95.11031253523757</v>
+        <v>217.8662565326778</v>
       </c>
       <c r="D14" t="n">
-        <v>373.775834346572</v>
+        <v>514.4885520309304</v>
       </c>
       <c r="E14" t="n">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44873</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44887</v>
+        <v>44852</v>
       </c>
       <c r="B15" t="n">
-        <v>296.7403019331654</v>
+        <v>360.8377805452336</v>
       </c>
       <c r="C15" t="n">
-        <v>149.2346940845816</v>
+        <v>217.8113302474403</v>
       </c>
       <c r="D15" t="n">
-        <v>438.2484169950656</v>
+        <v>519.0753581041058</v>
       </c>
       <c r="E15" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44880</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
       <c r="B16" t="n">
-        <v>266.5110714047597</v>
+        <v>248.8811791571475</v>
       </c>
       <c r="C16" t="n">
-        <v>127.2917166461761</v>
+        <v>107.7615525943153</v>
       </c>
       <c r="D16" t="n">
-        <v>410.3152075522352</v>
+        <v>398.2681451486583</v>
       </c>
       <c r="E16" t="n">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44887</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="B17" t="n">
-        <v>191.1883194681246</v>
+        <v>328.8856802127801</v>
       </c>
       <c r="C17" t="n">
-        <v>40.10412843295517</v>
+        <v>186.1188884725964</v>
       </c>
       <c r="D17" t="n">
-        <v>342.482163306933</v>
+        <v>475.2396228905599</v>
       </c>
       <c r="E17" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44908</v>
+        <v>44894</v>
       </c>
       <c r="B18" t="n">
-        <v>240.4769807367508</v>
+        <v>346.1252980286861</v>
       </c>
       <c r="C18" t="n">
-        <v>87.56182737032655</v>
+        <v>201.1834190360867</v>
       </c>
       <c r="D18" t="n">
-        <v>397.7980134238304</v>
+        <v>490.6808692375249</v>
       </c>
       <c r="E18" t="n">
-        <v>540</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44901</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44915</v>
+        <v>44901</v>
       </c>
       <c r="B19" t="n">
-        <v>324.1681538883417</v>
+        <v>270.2234075883707</v>
       </c>
       <c r="C19" t="n">
-        <v>171.5608460665674</v>
+        <v>127.4407129176601</v>
       </c>
       <c r="D19" t="n">
-        <v>484.488021961352</v>
+        <v>431.3556613918888</v>
       </c>
       <c r="E19" t="n">
-        <v>340</v>
+        <v>550</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44908</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
       <c r="B20" t="n">
-        <v>334.1193874174669</v>
+        <v>295.2926089491241</v>
       </c>
       <c r="C20" t="n">
-        <v>177.1638029019388</v>
+        <v>150.5330169014198</v>
       </c>
       <c r="D20" t="n">
-        <v>484.0328906782993</v>
+        <v>439.1386409166202</v>
       </c>
       <c r="E20" t="n">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44915</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44929</v>
+        <v>44915</v>
       </c>
       <c r="B21" t="n">
-        <v>259.0811392652703</v>
+        <v>340.1566130279349</v>
       </c>
       <c r="C21" t="n">
-        <v>93.84487568109225</v>
+        <v>195.4191306009195</v>
       </c>
       <c r="D21" t="n">
-        <v>391.6920585488684</v>
+        <v>491.7924567606075</v>
       </c>
       <c r="E21" t="n">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44950</v>
+        <v>44922</v>
       </c>
       <c r="B22" t="n">
-        <v>337.6544470874458</v>
+        <v>327.8210531538267</v>
       </c>
       <c r="C22" t="n">
-        <v>186.7586190109805</v>
+        <v>172.5949924463654</v>
       </c>
       <c r="D22" t="n">
-        <v>484.2281540160752</v>
+        <v>476.50665575132</v>
       </c>
       <c r="E22" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44943</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44957</v>
+        <v>44929</v>
       </c>
       <c r="B23" t="n">
-        <v>373.8232407028897</v>
+        <v>263.8720012040411</v>
       </c>
       <c r="C23" t="n">
-        <v>226.0571633559071</v>
+        <v>115.6831765675028</v>
       </c>
       <c r="D23" t="n">
-        <v>533.8472591516419</v>
+        <v>406.4440659418756</v>
       </c>
       <c r="E23" t="n">
-        <v>60</v>
+        <v>510</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44950</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44960</v>
+        <v>44950</v>
       </c>
       <c r="B24" t="n">
-        <v>169.1823600055772</v>
+        <v>350.9345506886818</v>
       </c>
       <c r="C24" t="n">
-        <v>21.21865859655577</v>
+        <v>200.1247707337602</v>
       </c>
       <c r="D24" t="n">
-        <v>310.2509448444775</v>
+        <v>500.5217311610172</v>
       </c>
       <c r="E24" t="n">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44957</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="B25" t="n">
-        <v>299.5830372220664</v>
+        <v>202.7432405124273</v>
       </c>
       <c r="C25" t="n">
-        <v>139.4285225712061</v>
+        <v>43.31741774326603</v>
       </c>
       <c r="D25" t="n">
-        <v>445.7886230092447</v>
+        <v>347.6723031996061</v>
       </c>
       <c r="E25" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>44957</v>
@@ -953,59 +953,59 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44971</v>
+        <v>44964</v>
       </c>
       <c r="B26" t="n">
-        <v>215.7925855387226</v>
+        <v>334.4949729255584</v>
       </c>
       <c r="C26" t="n">
-        <v>74.27416198014076</v>
+        <v>188.7423088561543</v>
       </c>
       <c r="D26" t="n">
-        <v>362.2490491802458</v>
+        <v>493.002201012187</v>
       </c>
       <c r="E26" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44980</v>
+        <v>44971</v>
       </c>
       <c r="B27" t="n">
-        <v>245.2862402805463</v>
+        <v>243.5112285374875</v>
       </c>
       <c r="C27" t="n">
-        <v>97.69734965837701</v>
+        <v>88.36401189833703</v>
       </c>
       <c r="D27" t="n">
-        <v>400.9219432700834</v>
+        <v>388.6606479239594</v>
       </c>
       <c r="E27" t="n">
-        <v>430</v>
+        <v>270</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B28" t="n">
-        <v>342.1588908187484</v>
+        <v>258.6239896863535</v>
       </c>
       <c r="C28" t="n">
-        <v>184.9277000465121</v>
+        <v>110.3708187162265</v>
       </c>
       <c r="D28" t="n">
-        <v>497.6284204490495</v>
+        <v>413.7066525269673</v>
       </c>
       <c r="E28" t="n">
-        <v>110</v>
+        <v>430</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>44978</v>
@@ -1013,39 +1013,39 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B29" t="n">
-        <v>197.0038374168742</v>
+        <v>348.7935262423363</v>
       </c>
       <c r="C29" t="n">
-        <v>44.19823987655916</v>
+        <v>189.2041292566198</v>
       </c>
       <c r="D29" t="n">
-        <v>341.5682044609202</v>
+        <v>499.135996058281</v>
       </c>
       <c r="E29" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B30" t="n">
-        <v>396.8755389705398</v>
+        <v>197.7272945985039</v>
       </c>
       <c r="C30" t="n">
-        <v>247.5716357666158</v>
+        <v>43.53958269521786</v>
       </c>
       <c r="D30" t="n">
-        <v>548.3212838430907</v>
+        <v>346.4696276684365</v>
       </c>
       <c r="E30" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>44985</v>
@@ -1053,161 +1053,181 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="B31" t="n">
-        <v>320.6917029269813</v>
+        <v>402.0578643749886</v>
       </c>
       <c r="C31" t="n">
-        <v>161.8144863793015</v>
+        <v>254.008839152786</v>
       </c>
       <c r="D31" t="n">
-        <v>482.0723573076061</v>
+        <v>556.9163288235924</v>
       </c>
       <c r="E31" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
       <c r="B32" t="n">
-        <v>183.9446139391459</v>
+        <v>341.5041482205316</v>
       </c>
       <c r="C32" t="n">
-        <v>24.74749967158919</v>
+        <v>195.0566865885977</v>
       </c>
       <c r="D32" t="n">
-        <v>354.5048196729085</v>
+        <v>494.5869454991445</v>
       </c>
       <c r="E32" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
       <c r="B33" t="n">
-        <v>177.2955081719243</v>
+        <v>219.0360115051934</v>
       </c>
       <c r="C33" t="n">
-        <v>25.68899242312814</v>
+        <v>79.94842560498158</v>
       </c>
       <c r="D33" t="n">
-        <v>313.4017461125322</v>
+        <v>365.9376212961751</v>
       </c>
       <c r="E33" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="B34" t="n">
-        <v>412.5246623457602</v>
+        <v>197.8693016025388</v>
       </c>
       <c r="C34" t="n">
-        <v>247.7889774177903</v>
+        <v>47.46888383744764</v>
       </c>
       <c r="D34" t="n">
-        <v>561.453121992992</v>
+        <v>349.007640332151</v>
       </c>
       <c r="E34" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45040</v>
+        <v>45020</v>
       </c>
       <c r="B35" t="n">
-        <v>770.542522599922</v>
+        <v>390.0322873554154</v>
       </c>
       <c r="C35" t="n">
-        <v>612.4931082666296</v>
+        <v>237.6408423473154</v>
       </c>
       <c r="D35" t="n">
-        <v>926.9228216131522</v>
+        <v>548.9621083197877</v>
       </c>
       <c r="E35" t="n">
-        <v>780</v>
+        <v>200</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>45034</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="B36" t="n">
-        <v>599.6005515562848</v>
+        <v>708.9295979496973</v>
       </c>
       <c r="C36" t="n">
-        <v>440.9119180018518</v>
+        <v>555.3033864599827</v>
       </c>
       <c r="D36" t="n">
-        <v>751.3790434898551</v>
+        <v>845.6352215683573</v>
       </c>
       <c r="E36" t="n">
-        <v>490</v>
+        <v>780</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45041</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45055</v>
+        <v>45048</v>
       </c>
       <c r="B37" t="n">
-        <v>199.000863549758</v>
+        <v>598.4074099713091</v>
       </c>
       <c r="C37" t="n">
-        <v>36.69609659128749</v>
+        <v>440.8009061073752</v>
       </c>
       <c r="D37" t="n">
-        <v>355.2085112174135</v>
+        <v>744.2158201723095</v>
       </c>
       <c r="E37" t="n">
-        <v>210</v>
+        <v>490</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B38" t="n">
+        <v>227.3663868619543</v>
+      </c>
+      <c r="C38" t="n">
+        <v>78.80912037377468</v>
+      </c>
+      <c r="D38" t="n">
+        <v>376.96393792446</v>
+      </c>
+      <c r="E38" t="n">
+        <v>210</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B38" t="n">
-        <v>12.58659663174879</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-140.3427457609652</v>
-      </c>
-      <c r="D38" t="n">
-        <v>174.0719501021632</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="B39" t="n">
+        <v>30.74452580916227</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-111.0848833098919</v>
+      </c>
+      <c r="D39" t="n">
+        <v>183.9091527652648</v>
+      </c>
+      <c r="E39" t="n">
         <v>30</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F39" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1277,22 +1297,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>8235.341295679258</v>
+        <v>10710.3077120952</v>
       </c>
       <c r="C2" t="n">
-        <v>90.74878123522794</v>
+        <v>103.4906165412845</v>
       </c>
       <c r="D2" t="n">
-        <v>83.50751798770477</v>
+        <v>92.71750379339123</v>
       </c>
       <c r="E2" t="n">
-        <v>1.188721985248906</v>
+        <v>1.062836618033018</v>
       </c>
       <c r="F2" t="n">
-        <v>1.416890857222531</v>
+        <v>1.028981421802628</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9066506530086619</v>
+        <v>0.7499123836659307</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1303,22 +1323,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>5520.0421567105</v>
+        <v>8823.872490594023</v>
       </c>
       <c r="C3" t="n">
-        <v>74.29698618860996</v>
+        <v>93.93546982154304</v>
       </c>
       <c r="D3" t="n">
-        <v>58.82417112516251</v>
+        <v>85.50180321236174</v>
       </c>
       <c r="E3" t="n">
-        <v>0.796522980507851</v>
+        <v>0.7389297120435092</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6867271308132598</v>
+        <v>0.297051621206428</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6085000776201078</v>
+        <v>0.5317632871269534</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -1329,25 +1349,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>21557.38673979095</v>
+        <v>17792.16518150644</v>
       </c>
       <c r="C4" t="n">
-        <v>146.824339738992</v>
+        <v>133.3872751858529</v>
       </c>
       <c r="D4" t="n">
-        <v>113.6830905923657</v>
+        <v>105.399585814134</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6468474643499095</v>
+        <v>0.5183693179329859</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3514602058978904</v>
+        <v>0.3755694051910893</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4437682793651258</v>
+        <v>0.3732190803392263</v>
       </c>
       <c r="H4" t="n">
-        <v>0.75</v>
+        <v>0.78125</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAFAR4421378/OBAFAR4421378_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4421378/OBAFAR4421378_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44771</v>
       </c>
       <c r="B2" t="n">
-        <v>74.45310099768767</v>
+        <v>63.01012654064934</v>
       </c>
       <c r="C2" t="n">
-        <v>-71.6608298787975</v>
+        <v>-79.85495434392696</v>
       </c>
       <c r="D2" t="n">
-        <v>229.8938074349116</v>
+        <v>218.5066740842855</v>
       </c>
       <c r="E2" t="n">
         <v>180</v>
@@ -496,13 +496,13 @@
         <v>44775</v>
       </c>
       <c r="B3" t="n">
-        <v>280.5731623194337</v>
+        <v>258.5712985539008</v>
       </c>
       <c r="C3" t="n">
-        <v>121.2310367738506</v>
+        <v>117.3243880471707</v>
       </c>
       <c r="D3" t="n">
-        <v>432.0225510741732</v>
+        <v>406.0056590165012</v>
       </c>
       <c r="E3" t="n">
         <v>200</v>
@@ -516,13 +516,13 @@
         <v>44782</v>
       </c>
       <c r="B4" t="n">
-        <v>293.9749926917577</v>
+        <v>267.9973512989137</v>
       </c>
       <c r="C4" t="n">
-        <v>145.9417385510804</v>
+        <v>119.1670730439698</v>
       </c>
       <c r="D4" t="n">
-        <v>450.0316436387451</v>
+        <v>412.4538113346439</v>
       </c>
       <c r="E4" t="n">
         <v>200</v>
@@ -536,13 +536,13 @@
         <v>44789</v>
       </c>
       <c r="B5" t="n">
-        <v>231.8877249804299</v>
+        <v>212.9779848068213</v>
       </c>
       <c r="C5" t="n">
-        <v>81.40022393311943</v>
+        <v>66.47963648472815</v>
       </c>
       <c r="D5" t="n">
-        <v>383.9012198349224</v>
+        <v>349.6247862472978</v>
       </c>
       <c r="E5" t="n">
         <v>180</v>
@@ -556,13 +556,13 @@
         <v>44796</v>
       </c>
       <c r="B6" t="n">
-        <v>167.3154298311501</v>
+        <v>151.5056622422641</v>
       </c>
       <c r="C6" t="n">
-        <v>19.44843266434136</v>
+        <v>13.20417734483898</v>
       </c>
       <c r="D6" t="n">
-        <v>317.2315541286588</v>
+        <v>298.7359724650282</v>
       </c>
       <c r="E6" t="n">
         <v>190</v>
@@ -576,13 +576,13 @@
         <v>44803</v>
       </c>
       <c r="B7" t="n">
-        <v>179.6489667255362</v>
+        <v>164.6864434381093</v>
       </c>
       <c r="C7" t="n">
-        <v>27.67292254878936</v>
+        <v>19.61514879399282</v>
       </c>
       <c r="D7" t="n">
-        <v>322.5032502347561</v>
+        <v>304.5498184695425</v>
       </c>
       <c r="E7" t="n">
         <v>100</v>
@@ -596,13 +596,13 @@
         <v>44806</v>
       </c>
       <c r="B8" t="n">
-        <v>35.1474189396786</v>
+        <v>23.58053697040765</v>
       </c>
       <c r="C8" t="n">
-        <v>-117.8443832217143</v>
+        <v>-115.3068230836468</v>
       </c>
       <c r="D8" t="n">
-        <v>179.760665146827</v>
+        <v>169.5701550943921</v>
       </c>
       <c r="E8" t="n">
         <v>50</v>
@@ -616,13 +616,13 @@
         <v>44810</v>
       </c>
       <c r="B9" t="n">
-        <v>235.3561508533183</v>
+        <v>211.1841932068423</v>
       </c>
       <c r="C9" t="n">
-        <v>85.58970045384208</v>
+        <v>63.55551429451918</v>
       </c>
       <c r="D9" t="n">
-        <v>384.3898062493624</v>
+        <v>347.5341096849057</v>
       </c>
       <c r="E9" t="n">
         <v>270</v>
@@ -636,13 +636,13 @@
         <v>44817</v>
       </c>
       <c r="B10" t="n">
-        <v>296.6864015142343</v>
+        <v>276.419749579958</v>
       </c>
       <c r="C10" t="n">
-        <v>147.5510941761594</v>
+        <v>127.850261369697</v>
       </c>
       <c r="D10" t="n">
-        <v>453.8748007070531</v>
+        <v>413.9565766939229</v>
       </c>
       <c r="E10" t="n">
         <v>390</v>
@@ -656,13 +656,13 @@
         <v>44824</v>
       </c>
       <c r="B11" t="n">
-        <v>321.264378229845</v>
+        <v>300.7797989219438</v>
       </c>
       <c r="C11" t="n">
-        <v>171.5061186534095</v>
+        <v>157.881647368371</v>
       </c>
       <c r="D11" t="n">
-        <v>461.9939487008533</v>
+        <v>448.9718636125808</v>
       </c>
       <c r="E11" t="n">
         <v>240</v>
@@ -676,13 +676,13 @@
         <v>44831</v>
       </c>
       <c r="B12" t="n">
-        <v>322.9701314083119</v>
+        <v>305.2464650337997</v>
       </c>
       <c r="C12" t="n">
-        <v>170.3922013747185</v>
+        <v>159.8741902365538</v>
       </c>
       <c r="D12" t="n">
-        <v>466.5850819792587</v>
+        <v>442.7923012733306</v>
       </c>
       <c r="E12" t="n">
         <v>210</v>
@@ -696,13 +696,13 @@
         <v>44838</v>
       </c>
       <c r="B13" t="n">
-        <v>336.333729240632</v>
+        <v>327.8894027199633</v>
       </c>
       <c r="C13" t="n">
-        <v>196.4985919004579</v>
+        <v>192.3664119429755</v>
       </c>
       <c r="D13" t="n">
-        <v>483.2033702591796</v>
+        <v>467.1983820480138</v>
       </c>
       <c r="E13" t="n">
         <v>240</v>
@@ -716,13 +716,13 @@
         <v>44845</v>
       </c>
       <c r="B14" t="n">
-        <v>373.786644206107</v>
+        <v>358.0397166154536</v>
       </c>
       <c r="C14" t="n">
-        <v>217.8662565326778</v>
+        <v>217.2390600703019</v>
       </c>
       <c r="D14" t="n">
-        <v>514.4885520309304</v>
+        <v>496.7570225759281</v>
       </c>
       <c r="E14" t="n">
         <v>320</v>
@@ -736,13 +736,13 @@
         <v>44852</v>
       </c>
       <c r="B15" t="n">
-        <v>360.8377805452336</v>
+        <v>334.9349130642084</v>
       </c>
       <c r="C15" t="n">
-        <v>217.8113302474403</v>
+        <v>198.2382458949616</v>
       </c>
       <c r="D15" t="n">
-        <v>519.0753581041058</v>
+        <v>473.9099073345976</v>
       </c>
       <c r="E15" t="n">
         <v>240</v>
@@ -756,13 +756,13 @@
         <v>44880</v>
       </c>
       <c r="B16" t="n">
-        <v>248.8811791571475</v>
+        <v>241.9891585363681</v>
       </c>
       <c r="C16" t="n">
-        <v>107.7615525943153</v>
+        <v>96.63404668222057</v>
       </c>
       <c r="D16" t="n">
-        <v>398.2681451486583</v>
+        <v>386.2161266611409</v>
       </c>
       <c r="E16" t="n">
         <v>260</v>
@@ -776,13 +776,13 @@
         <v>44887</v>
       </c>
       <c r="B17" t="n">
-        <v>328.8856802127801</v>
+        <v>292.686592321303</v>
       </c>
       <c r="C17" t="n">
-        <v>186.1188884725964</v>
+        <v>148.616238284757</v>
       </c>
       <c r="D17" t="n">
-        <v>475.2396228905599</v>
+        <v>439.7323536781467</v>
       </c>
       <c r="E17" t="n">
         <v>350</v>
@@ -796,13 +796,13 @@
         <v>44894</v>
       </c>
       <c r="B18" t="n">
-        <v>346.1252980286861</v>
+        <v>275.4853805306976</v>
       </c>
       <c r="C18" t="n">
-        <v>201.1834190360867</v>
+        <v>132.3993720163114</v>
       </c>
       <c r="D18" t="n">
-        <v>490.6808692375249</v>
+        <v>422.6303062440005</v>
       </c>
       <c r="E18" t="n">
         <v>80</v>
@@ -816,13 +816,13 @@
         <v>44901</v>
       </c>
       <c r="B19" t="n">
-        <v>270.2234075883707</v>
+        <v>190.7868434413255</v>
       </c>
       <c r="C19" t="n">
-        <v>127.4407129176601</v>
+        <v>47.64620579042516</v>
       </c>
       <c r="D19" t="n">
-        <v>431.3556613918888</v>
+        <v>336.7443323714722</v>
       </c>
       <c r="E19" t="n">
         <v>550</v>
@@ -836,13 +836,13 @@
         <v>44908</v>
       </c>
       <c r="B20" t="n">
-        <v>295.2926089491241</v>
+        <v>246.248581844279</v>
       </c>
       <c r="C20" t="n">
-        <v>150.5330169014198</v>
+        <v>99.8651230726914</v>
       </c>
       <c r="D20" t="n">
-        <v>439.1386409166202</v>
+        <v>395.2578852421119</v>
       </c>
       <c r="E20" t="n">
         <v>540</v>
@@ -856,13 +856,13 @@
         <v>44915</v>
       </c>
       <c r="B21" t="n">
-        <v>340.1566130279349</v>
+        <v>327.0361574812375</v>
       </c>
       <c r="C21" t="n">
-        <v>195.4191306009195</v>
+        <v>185.7953988987545</v>
       </c>
       <c r="D21" t="n">
-        <v>491.7924567606075</v>
+        <v>482.6082633993588</v>
       </c>
       <c r="E21" t="n">
         <v>340</v>
@@ -876,13 +876,13 @@
         <v>44922</v>
       </c>
       <c r="B22" t="n">
-        <v>327.8210531538267</v>
+        <v>333.6457623831045</v>
       </c>
       <c r="C22" t="n">
-        <v>172.5949924463654</v>
+        <v>191.4455140819518</v>
       </c>
       <c r="D22" t="n">
-        <v>476.50665575132</v>
+        <v>479.1651855347035</v>
       </c>
       <c r="E22" t="n">
         <v>180</v>
@@ -896,13 +896,13 @@
         <v>44929</v>
       </c>
       <c r="B23" t="n">
-        <v>263.8720012040411</v>
+        <v>273.3745887940849</v>
       </c>
       <c r="C23" t="n">
-        <v>115.6831765675028</v>
+        <v>118.5295611979133</v>
       </c>
       <c r="D23" t="n">
-        <v>406.4440659418756</v>
+        <v>421.760198609016</v>
       </c>
       <c r="E23" t="n">
         <v>510</v>
@@ -916,13 +916,13 @@
         <v>44950</v>
       </c>
       <c r="B24" t="n">
-        <v>350.9345506886818</v>
+        <v>336.7658455376471</v>
       </c>
       <c r="C24" t="n">
-        <v>200.1247707337602</v>
+        <v>187.9340637078142</v>
       </c>
       <c r="D24" t="n">
-        <v>500.5217311610172</v>
+        <v>488.3238767741382</v>
       </c>
       <c r="E24" t="n">
         <v>260</v>
@@ -936,13 +936,13 @@
         <v>44960</v>
       </c>
       <c r="B25" t="n">
-        <v>202.7432405124273</v>
+        <v>211.5139311028623</v>
       </c>
       <c r="C25" t="n">
-        <v>43.31741774326603</v>
+        <v>51.05323734094542</v>
       </c>
       <c r="D25" t="n">
-        <v>347.6723031996061</v>
+        <v>358.7874946751551</v>
       </c>
       <c r="E25" t="n">
         <v>70</v>
@@ -956,13 +956,13 @@
         <v>44964</v>
       </c>
       <c r="B26" t="n">
-        <v>334.4949729255584</v>
+        <v>336.9837121602278</v>
       </c>
       <c r="C26" t="n">
-        <v>188.7423088561543</v>
+        <v>176.6029951920872</v>
       </c>
       <c r="D26" t="n">
-        <v>493.002201012187</v>
+        <v>479.4560663314687</v>
       </c>
       <c r="E26" t="n">
         <v>200</v>
@@ -976,13 +976,13 @@
         <v>44971</v>
       </c>
       <c r="B27" t="n">
-        <v>243.5112285374875</v>
+        <v>241.2985416369177</v>
       </c>
       <c r="C27" t="n">
-        <v>88.36401189833703</v>
+        <v>98.44470416937271</v>
       </c>
       <c r="D27" t="n">
-        <v>388.6606479239594</v>
+        <v>390.7295572217022</v>
       </c>
       <c r="E27" t="n">
         <v>270</v>
@@ -996,13 +996,13 @@
         <v>44980</v>
       </c>
       <c r="B28" t="n">
-        <v>258.6239896863535</v>
+        <v>257.2895626652971</v>
       </c>
       <c r="C28" t="n">
-        <v>110.3708187162265</v>
+        <v>99.45599245259739</v>
       </c>
       <c r="D28" t="n">
-        <v>413.7066525269673</v>
+        <v>404.678601969708</v>
       </c>
       <c r="E28" t="n">
         <v>430</v>
@@ -1016,13 +1016,13 @@
         <v>44985</v>
       </c>
       <c r="B29" t="n">
-        <v>348.7935262423363</v>
+        <v>344.0529196874677</v>
       </c>
       <c r="C29" t="n">
-        <v>189.2041292566198</v>
+        <v>191.743761232029</v>
       </c>
       <c r="D29" t="n">
-        <v>499.135996058281</v>
+        <v>492.5505950846212</v>
       </c>
       <c r="E29" t="n">
         <v>110</v>
@@ -1036,13 +1036,13 @@
         <v>44988</v>
       </c>
       <c r="B30" t="n">
-        <v>197.7272945985039</v>
+        <v>204.5913506153848</v>
       </c>
       <c r="C30" t="n">
-        <v>43.53958269521786</v>
+        <v>43.34675448596857</v>
       </c>
       <c r="D30" t="n">
-        <v>346.4696276684365</v>
+        <v>361.0484984468839</v>
       </c>
       <c r="E30" t="n">
         <v>80</v>
@@ -1056,13 +1056,13 @@
         <v>44992</v>
       </c>
       <c r="B31" t="n">
-        <v>402.0578643749886</v>
+        <v>403.8401366812388</v>
       </c>
       <c r="C31" t="n">
-        <v>254.008839152786</v>
+        <v>249.2007532917813</v>
       </c>
       <c r="D31" t="n">
-        <v>556.9163288235924</v>
+        <v>557.0597510262651</v>
       </c>
       <c r="E31" t="n">
         <v>200</v>
@@ -1076,13 +1076,13 @@
         <v>44999</v>
       </c>
       <c r="B32" t="n">
-        <v>341.5041482205316</v>
+        <v>340.4938838387922</v>
       </c>
       <c r="C32" t="n">
-        <v>195.0566865885977</v>
+        <v>191.0329002012392</v>
       </c>
       <c r="D32" t="n">
-        <v>494.5869454991445</v>
+        <v>487.9516652263965</v>
       </c>
       <c r="E32" t="n">
         <v>220</v>
@@ -1096,13 +1096,13 @@
         <v>45006</v>
       </c>
       <c r="B33" t="n">
-        <v>219.0360115051934</v>
+        <v>214.6730399997944</v>
       </c>
       <c r="C33" t="n">
-        <v>79.94842560498158</v>
+        <v>58.65803646447107</v>
       </c>
       <c r="D33" t="n">
-        <v>365.9376212961751</v>
+        <v>369.0492315542561</v>
       </c>
       <c r="E33" t="n">
         <v>230</v>
@@ -1116,13 +1116,13 @@
         <v>45013</v>
       </c>
       <c r="B34" t="n">
-        <v>197.8693016025388</v>
+        <v>194.077087011952</v>
       </c>
       <c r="C34" t="n">
-        <v>47.46888383744764</v>
+        <v>46.09110995377785</v>
       </c>
       <c r="D34" t="n">
-        <v>349.007640332151</v>
+        <v>343.9770899265066</v>
       </c>
       <c r="E34" t="n">
         <v>290</v>
@@ -1136,13 +1136,13 @@
         <v>45020</v>
       </c>
       <c r="B35" t="n">
-        <v>390.0322873554154</v>
+        <v>388.2545239869312</v>
       </c>
       <c r="C35" t="n">
-        <v>237.6408423473154</v>
+        <v>235.6431942682858</v>
       </c>
       <c r="D35" t="n">
-        <v>548.9621083197877</v>
+        <v>536.1834958695163</v>
       </c>
       <c r="E35" t="n">
         <v>200</v>
@@ -1156,13 +1156,13 @@
         <v>45040</v>
       </c>
       <c r="B36" t="n">
-        <v>708.9295979496973</v>
+        <v>711.5487553365754</v>
       </c>
       <c r="C36" t="n">
-        <v>555.3033864599827</v>
+        <v>556.8263147624824</v>
       </c>
       <c r="D36" t="n">
-        <v>845.6352215683573</v>
+        <v>863.2868195990072</v>
       </c>
       <c r="E36" t="n">
         <v>780</v>
@@ -1176,13 +1176,13 @@
         <v>45048</v>
       </c>
       <c r="B37" t="n">
-        <v>598.4074099713091</v>
+        <v>594.1169704409069</v>
       </c>
       <c r="C37" t="n">
-        <v>440.8009061073752</v>
+        <v>446.6030787246632</v>
       </c>
       <c r="D37" t="n">
-        <v>744.2158201723095</v>
+        <v>751.6518356661261</v>
       </c>
       <c r="E37" t="n">
         <v>490</v>
@@ -1196,13 +1196,13 @@
         <v>45055</v>
       </c>
       <c r="B38" t="n">
-        <v>227.3663868619543</v>
+        <v>220.2948659742758</v>
       </c>
       <c r="C38" t="n">
-        <v>78.80912037377468</v>
+        <v>78.57027079774892</v>
       </c>
       <c r="D38" t="n">
-        <v>376.96393792446</v>
+        <v>369.077709013616</v>
       </c>
       <c r="E38" t="n">
         <v>210</v>
@@ -1216,13 +1216,13 @@
         <v>45062</v>
       </c>
       <c r="B39" t="n">
-        <v>30.74452580916227</v>
+        <v>32.53149765478304</v>
       </c>
       <c r="C39" t="n">
-        <v>-111.0848833098919</v>
+        <v>-118.48434675613</v>
       </c>
       <c r="D39" t="n">
-        <v>183.9091527652648</v>
+        <v>182.1903723258989</v>
       </c>
       <c r="E39" t="n">
         <v>30</v>
@@ -1297,22 +1297,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>10710.3077120952</v>
+        <v>12483.45396578957</v>
       </c>
       <c r="C2" t="n">
-        <v>103.4906165412845</v>
+        <v>111.7293782574197</v>
       </c>
       <c r="D2" t="n">
-        <v>92.71750379339123</v>
+        <v>102.3786545517975</v>
       </c>
       <c r="E2" t="n">
-        <v>1.062836618033018</v>
+        <v>1.189338117977185</v>
       </c>
       <c r="F2" t="n">
-        <v>1.028981421802628</v>
+        <v>1.103667812066573</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7499123836659307</v>
+        <v>0.8904770319803369</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1323,22 +1323,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>8823.872490594023</v>
+        <v>9884.160275850387</v>
       </c>
       <c r="C3" t="n">
-        <v>93.93546982154304</v>
+        <v>99.41911423790893</v>
       </c>
       <c r="D3" t="n">
-        <v>85.50180321236174</v>
+        <v>91.0695179223399</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7389297120435092</v>
+        <v>0.82214474731104</v>
       </c>
       <c r="F3" t="n">
-        <v>0.297051621206428</v>
+        <v>0.528389260591847</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5317632871269534</v>
+        <v>0.6242465081446366</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -1349,25 +1349,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>17792.16518150644</v>
+        <v>18474.7708043562</v>
       </c>
       <c r="C4" t="n">
-        <v>133.3872751858529</v>
+        <v>135.9219290782624</v>
       </c>
       <c r="D4" t="n">
-        <v>105.399585814134</v>
+        <v>104.8846461635268</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5183693179329859</v>
+        <v>0.4830347189034499</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3755694051910893</v>
+        <v>0.3130109587719505</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3732190803392263</v>
+        <v>0.3784405414802989</v>
       </c>
       <c r="H4" t="n">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
